--- a/data/financial_statements/sofp/FDX.xlsx
+++ b/data/financial_statements/sofp/FDX.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+  <si>
+    <t>2022-11-30</t>
+  </si>
+  <si>
+    <t>2022-08-31</t>
+  </si>
+  <si>
+    <t>2022-05-31</t>
+  </si>
+  <si>
+    <t>2022-02-28</t>
+  </si>
+  <si>
+    <t>2021-11-30</t>
+  </si>
+  <si>
+    <t>2021-08-31</t>
+  </si>
+  <si>
+    <t>2021-05-31</t>
+  </si>
+  <si>
+    <t>2021-02-28</t>
+  </si>
+  <si>
+    <t>2020-11-30</t>
+  </si>
+  <si>
+    <t>2020-08-31</t>
+  </si>
+  <si>
+    <t>2020-05-31</t>
+  </si>
+  <si>
+    <t>2020-02-29</t>
+  </si>
+  <si>
+    <t>2019-11-30</t>
+  </si>
+  <si>
+    <t>2019-08-31</t>
+  </si>
+  <si>
+    <t>2019-05-31</t>
+  </si>
+  <si>
+    <t>2019-02-28</t>
+  </si>
+  <si>
+    <t>2018-11-30</t>
+  </si>
+  <si>
+    <t>2018-08-31</t>
+  </si>
+  <si>
+    <t>2018-05-31</t>
+  </si>
+  <si>
+    <t>2018-02-28</t>
+  </si>
+  <si>
+    <t>2017-11-30</t>
+  </si>
+  <si>
+    <t>2017-08-31</t>
+  </si>
+  <si>
+    <t>2017-05-31</t>
+  </si>
+  <si>
+    <t>2017-02-28</t>
+  </si>
+  <si>
+    <t>2016-11-30</t>
+  </si>
+  <si>
+    <t>2016-08-31</t>
+  </si>
+  <si>
+    <t>2016-05-31</t>
+  </si>
+  <si>
+    <t>2016-02-29</t>
+  </si>
+  <si>
+    <t>2015-11-30</t>
+  </si>
+  <si>
+    <t>2015-08-31</t>
+  </si>
+  <si>
+    <t>2015-05-31</t>
+  </si>
+  <si>
+    <t>2015-02-28</t>
+  </si>
+  <si>
+    <t>2014-11-30</t>
+  </si>
+  <si>
+    <t>2014-08-31</t>
+  </si>
+  <si>
+    <t>2014-05-31</t>
+  </si>
+  <si>
+    <t>2014-02-28</t>
+  </si>
+  <si>
+    <t>2013-11-30</t>
+  </si>
+  <si>
+    <t>2013-08-31</t>
+  </si>
+  <si>
+    <t>2013-05-31</t>
+  </si>
+  <si>
+    <t>2013-02-28</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -122,9 +242,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -177,12 +294,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -487,132 +601,132 @@
   <sheetData>
     <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44895</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44804</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44712</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44620</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44530</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44439</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44347</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44255</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44165</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44074</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43982</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43890</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43799</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43708</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43616</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43524</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43434</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43343</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43251</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43159</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43069</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42978</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42886</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42794</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42704</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42613</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42521</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42429</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42338</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42247</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42155</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42063</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41973</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41882</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41790</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41698</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41608</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41517</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41425</v>
-      </c>
-      <c r="AO1" s="2">
-        <v>41333</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:41">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
         <v>4646000000</v>
@@ -736,8 +850,8 @@
       </c>
     </row>
     <row r="3" spans="1:41">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B3">
         <v>11644000000</v>
@@ -746,13 +860,13 @@
         <v>11055000000</v>
       </c>
       <c r="D3">
-        <v>12486000000</v>
+        <v>11863000000</v>
       </c>
       <c r="E3">
-        <v>12259000000</v>
+        <v>11668000000</v>
       </c>
       <c r="F3">
-        <v>12880000000</v>
+        <v>12197000000</v>
       </c>
       <c r="G3">
         <v>11125000000</v>
@@ -861,8 +975,8 @@
       </c>
     </row>
     <row r="4" spans="1:41">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B4">
         <v>655000000</v>
@@ -986,8 +1100,8 @@
       </c>
     </row>
     <row r="5" spans="1:41">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B5">
         <v>1272000000</v>
@@ -1027,8 +1141,8 @@
       </c>
     </row>
     <row r="6" spans="1:41">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B6">
         <v>18217000000</v>
@@ -1152,23 +1266,23 @@
       </c>
     </row>
     <row r="7" spans="1:41">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B7">
-        <v>57094000000</v>
+        <v>39721000000</v>
       </c>
       <c r="C7">
-        <v>56025000000</v>
+        <v>38806000000</v>
       </c>
       <c r="D7">
-        <v>54704000000</v>
+        <v>38091000000</v>
       </c>
       <c r="E7">
-        <v>53981000000</v>
+        <v>37376000000</v>
       </c>
       <c r="F7">
-        <v>53171000000</v>
+        <v>37153000000</v>
       </c>
       <c r="G7">
         <v>36481000000</v>
@@ -1277,8 +1391,8 @@
       </c>
     </row>
     <row r="8" spans="1:41">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B8">
         <v>6377000000</v>
@@ -1402,8 +1516,8 @@
       </c>
     </row>
     <row r="9" spans="1:41">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B9">
         <v>3903000000</v>
@@ -1412,7 +1526,7 @@
         <v>3879000000</v>
       </c>
       <c r="D9">
-        <v>3174000000</v>
+        <v>4381000000</v>
       </c>
       <c r="E9">
         <v>3906000000</v>
@@ -1527,8 +1641,8 @@
       </c>
     </row>
     <row r="10" spans="1:41">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B10">
         <v>67374000000</v>
@@ -1652,8 +1766,8 @@
       </c>
     </row>
     <row r="11" spans="1:41">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B11">
         <v>85591000000</v>
@@ -1777,8 +1891,8 @@
       </c>
     </row>
     <row r="12" spans="1:41">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B12">
         <v>3989000000</v>
@@ -1902,8 +2016,8 @@
       </c>
     </row>
     <row r="13" spans="1:41">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B13">
         <v>4960000000</v>
@@ -2027,23 +2141,23 @@
       </c>
     </row>
     <row r="14" spans="1:41">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B14">
-        <v>2670000000</v>
+        <v>172000000</v>
       </c>
       <c r="C14">
-        <v>2609000000</v>
+        <v>139000000</v>
       </c>
       <c r="D14">
-        <v>2525000000</v>
+        <v>82000000</v>
       </c>
       <c r="E14">
-        <v>2511000000</v>
+        <v>116000000</v>
       </c>
       <c r="F14">
-        <v>2488000000</v>
+        <v>117000000</v>
       </c>
       <c r="G14">
         <v>125000000</v>
@@ -2146,8 +2260,8 @@
       </c>
     </row>
     <row r="15" spans="1:41">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B15">
         <v>7380000000</v>
@@ -2187,8 +2301,8 @@
       </c>
     </row>
     <row r="16" spans="1:41">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B16">
         <v>14039000000</v>
@@ -2312,23 +2426,23 @@
       </c>
     </row>
     <row r="17" spans="1:41">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B17">
-        <v>35366000000</v>
+        <v>20076000000</v>
       </c>
       <c r="C17">
-        <v>35036000000</v>
+        <v>19918000000</v>
       </c>
       <c r="D17">
-        <v>34669000000</v>
+        <v>20182000000</v>
       </c>
       <c r="E17">
-        <v>34843000000</v>
+        <v>20393000000</v>
       </c>
       <c r="F17">
-        <v>34341000000</v>
+        <v>20386000000</v>
       </c>
       <c r="G17">
         <v>20554000000</v>
@@ -2437,8 +2551,8 @@
       </c>
     </row>
     <row r="18" spans="1:41">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="P18">
         <v>531000000</v>
@@ -2520,8 +2634,8 @@
       </c>
     </row>
     <row r="19" spans="1:41">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B19">
         <v>4115000000</v>
@@ -2645,8 +2759,8 @@
       </c>
     </row>
     <row r="20" spans="1:41">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B20">
         <v>4188000000</v>
@@ -2655,7 +2769,7 @@
         <v>4134000000</v>
       </c>
       <c r="D20">
-        <v>2886000000</v>
+        <v>4093000000</v>
       </c>
       <c r="E20">
         <v>4331000000</v>
@@ -2770,23 +2884,23 @@
       </c>
     </row>
     <row r="21" spans="1:41">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B21">
-        <v>7883000000</v>
+        <v>3768000000</v>
       </c>
       <c r="C21">
-        <v>7751000000</v>
+        <v>3696000000</v>
       </c>
       <c r="D21">
-        <v>8019000000</v>
+        <v>3571000000</v>
       </c>
       <c r="E21">
-        <v>6418000000</v>
+        <v>3318000000</v>
       </c>
       <c r="F21">
-        <v>6920000000</v>
+        <v>3567000000</v>
       </c>
       <c r="G21">
         <v>3461000000</v>
@@ -2895,8 +3009,8 @@
       </c>
     </row>
     <row r="22" spans="1:41">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B22">
         <v>47437000000</v>
@@ -3020,8 +3134,8 @@
       </c>
     </row>
     <row r="23" spans="1:41">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B23">
         <v>61476000000</v>
@@ -3145,8 +3259,8 @@
       </c>
     </row>
     <row r="24" spans="1:41">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B24">
         <v>3487000000</v>
@@ -3270,8 +3384,8 @@
       </c>
     </row>
     <row r="25" spans="1:41">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B25">
         <v>32000000</v>
@@ -3395,8 +3509,8 @@
       </c>
     </row>
     <row r="26" spans="1:41">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B26">
         <v>33557000000</v>
@@ -3520,8 +3634,8 @@
       </c>
     </row>
     <row r="27" spans="1:41">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B27">
         <v>11576000000</v>
@@ -3645,8 +3759,8 @@
       </c>
     </row>
     <row r="28" spans="1:41">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B28">
         <v>24115000000</v>
@@ -3770,8 +3884,8 @@
       </c>
     </row>
     <row r="29" spans="1:41">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B29">
         <v>24115000000</v>
@@ -3895,8 +4009,8 @@
       </c>
     </row>
     <row r="30" spans="1:41">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B30">
         <v>85591000000</v>
@@ -4020,8 +4134,8 @@
       </c>
     </row>
     <row r="31" spans="1:41">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B31">
         <v>252397000</v>
@@ -4145,8 +4259,8 @@
       </c>
     </row>
     <row r="32" spans="1:41">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B32">
         <v>17738000000</v>
@@ -4270,23 +4384,23 @@
       </c>
     </row>
     <row r="33" spans="1:41">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B33">
-        <v>33390000000</v>
+        <v>15602000000</v>
       </c>
       <c r="C33">
-        <v>30795000000</v>
+        <v>13207000000</v>
       </c>
       <c r="D33">
-        <v>30297000000</v>
+        <v>13367000000</v>
       </c>
       <c r="E33">
-        <v>31289000000</v>
+        <v>14444000000</v>
       </c>
       <c r="F33">
-        <v>29996000000</v>
+        <v>13670000000</v>
       </c>
       <c r="G33">
         <v>13826000000</v>
@@ -4395,23 +4509,23 @@
       </c>
     </row>
     <row r="34" spans="1:41">
-      <c r="A34" t="s">
-        <v>33</v>
+      <c r="A34" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B34">
-        <v>38036000000</v>
+        <v>20248000000</v>
       </c>
       <c r="C34">
-        <v>37645000000</v>
+        <v>20057000000</v>
       </c>
       <c r="D34">
-        <v>37194000000</v>
+        <v>20264000000</v>
       </c>
       <c r="E34">
-        <v>37354000000</v>
+        <v>20509000000</v>
       </c>
       <c r="F34">
-        <v>36829000000</v>
+        <v>20503000000</v>
       </c>
       <c r="G34">
         <v>20679000000</v>
